--- a/Data/MathAnxiety.xlsx
+++ b/Data/MathAnxiety.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25924"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/EPSY530 2015 Summer/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="5980" yWindow="3720" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Gender</t>
   </si>
@@ -116,6 +121,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -441,18 +451,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="15" width="4.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,65 +509,65 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
         <v>3</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1">
         <v>4</v>
       </c>
       <c r="L2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -569,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1">
         <v>4</v>
@@ -578,163 +588,163 @@
         <v>4</v>
       </c>
       <c r="K3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" s="1">
         <v>4</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
         <v>4</v>
       </c>
       <c r="K4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -742,78 +752,75 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
       </c>
       <c r="J7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N7" s="1">
         <v>4</v>
       </c>
       <c r="O7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1">
         <v>4</v>
       </c>
       <c r="J8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
@@ -822,48 +829,48 @@
         <v>2</v>
       </c>
       <c r="N8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1">
         <v>2</v>
@@ -872,74 +879,74 @@
         <v>2</v>
       </c>
       <c r="O9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
       </c>
       <c r="J10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -954,773 +961,163 @@
         <v>2</v>
       </c>
       <c r="K11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="1">
         <v>2</v>
       </c>
       <c r="M11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="1">
         <v>5</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2</v>
-      </c>
-      <c r="K15" s="1">
-        <v>2</v>
-      </c>
-      <c r="L15" s="1">
-        <v>4</v>
-      </c>
-      <c r="M15" s="1">
-        <v>2</v>
-      </c>
-      <c r="N15" s="1">
-        <v>4</v>
-      </c>
-      <c r="O15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2</v>
-      </c>
-      <c r="K16" s="1">
-        <v>3</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2</v>
-      </c>
-      <c r="M16" s="1">
-        <v>3</v>
-      </c>
-      <c r="N16" s="1">
-        <v>4</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1">
-        <v>4</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1">
-        <v>4</v>
-      </c>
-      <c r="J17" s="1">
-        <v>3</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2</v>
-      </c>
-      <c r="L17" s="1">
-        <v>4</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2</v>
-      </c>
-      <c r="O17" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1">
-        <v>3</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2</v>
-      </c>
-      <c r="L18" s="1">
-        <v>2</v>
-      </c>
-      <c r="M18" s="1">
-        <v>2</v>
-      </c>
-      <c r="N18" s="1">
-        <v>3</v>
-      </c>
-      <c r="O18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2</v>
-      </c>
-      <c r="K19" s="1">
-        <v>5</v>
-      </c>
-      <c r="M19" s="1">
-        <v>3</v>
-      </c>
-      <c r="N19" s="1">
-        <v>4</v>
-      </c>
-      <c r="O19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>4</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>5</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>5</v>
-      </c>
-      <c r="N20" s="1">
-        <v>5</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3</v>
-      </c>
-      <c r="I21" s="1">
-        <v>3</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2</v>
-      </c>
-      <c r="L21" s="1">
-        <v>3</v>
-      </c>
-      <c r="M21" s="1">
-        <v>2</v>
-      </c>
-      <c r="N21" s="1">
-        <v>2</v>
-      </c>
-      <c r="O21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3</v>
-      </c>
-      <c r="I22" s="1">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>3</v>
-      </c>
-      <c r="M22" s="1">
-        <v>2</v>
-      </c>
-      <c r="N22" s="1">
-        <v>3</v>
-      </c>
-      <c r="O22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1">
-        <v>4</v>
-      </c>
-      <c r="I23" s="1">
-        <v>4</v>
-      </c>
-      <c r="J23" s="1">
-        <v>4</v>
-      </c>
-      <c r="K23" s="1">
-        <v>3</v>
-      </c>
-      <c r="L23" s="1">
-        <v>4</v>
-      </c>
-      <c r="M23" s="1">
-        <v>2</v>
-      </c>
-      <c r="N23" s="1">
-        <v>2</v>
-      </c>
-      <c r="O23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2</v>
-      </c>
-      <c r="I24" s="1">
-        <v>4</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1">
-        <v>3</v>
-      </c>
-      <c r="M24" s="1">
-        <v>4</v>
-      </c>
-      <c r="N24" s="1">
-        <v>5</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>4</v>
-      </c>
-      <c r="G25" s="1">
-        <v>3</v>
-      </c>
-      <c r="H25" s="1">
-        <v>3</v>
-      </c>
-      <c r="I25" s="1">
-        <v>4</v>
-      </c>
-      <c r="J25" s="1">
-        <v>3</v>
-      </c>
-      <c r="K25" s="1">
-        <v>3</v>
-      </c>
-      <c r="L25" s="1">
-        <v>3</v>
-      </c>
-      <c r="M25" s="1">
-        <v>3</v>
-      </c>
-      <c r="N25" s="1">
-        <v>4</v>
-      </c>
-      <c r="O25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>3</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1">
-        <v>3</v>
-      </c>
-      <c r="I26" s="1">
-        <v>4</v>
-      </c>
-      <c r="J26" s="1">
-        <v>3</v>
-      </c>
-      <c r="K26" s="1">
-        <v>4</v>
-      </c>
-      <c r="L26" s="1">
-        <v>4</v>
-      </c>
-      <c r="M26" s="1">
-        <v>3</v>
-      </c>
-      <c r="N26" s="1">
-        <v>3</v>
-      </c>
-      <c r="O26" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1">
-        <v>4</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2</v>
-      </c>
-      <c r="I27" s="1">
-        <v>2</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
-        <v>2</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1">
-        <v>4</v>
-      </c>
-      <c r="O27" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>